--- a/soberano/test_cases/currency_record_test_cases.xlsx
+++ b/soberano/test_cases/currency_record_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -46,6 +46,12 @@
     <t xml:space="preserve">is reference currency</t>
   </si>
   <si>
+    <t xml:space="preserve">is cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment processor</t>
+  </si>
+  <si>
     <t xml:space="preserve">test constrained (for input validation) form components</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">opennode</t>
+  </si>
+  <si>
     <t xml:space="preserve">code empty</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t xml:space="preserve">c2</t>
   </si>
   <si>
+    <t xml:space="preserve">tropipay</t>
+  </si>
+  <si>
     <t xml:space="preserve">User3 is allowed to record currency</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t xml:space="preserve">c3</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">User5 is NOT allowed to record currency</t>
   </si>
   <si>
@@ -106,9 +121,6 @@
     <t xml:space="preserve">c4</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">User6 is allowed to record currency</t>
   </si>
   <si>
@@ -164,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">c9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User15 is allowed to record currency</t>
   </si>
   <si>
     <t xml:space="preserve">User16 is NOT allowed to record currency</t>
@@ -351,16 +360,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.52"/>
@@ -368,7 +377,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.08"/>
@@ -406,6 +415,12 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="AMJ1" s="0"/>
@@ -415,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1.23456789</v>
@@ -435,10 +450,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1.23456789</v>
@@ -458,10 +479,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,22 +496,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>-1.23456789</v>
@@ -507,10 +540,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,22 +557,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1.23456789</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1.23456789</v>
@@ -556,10 +601,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,13 +618,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>2</v>
@@ -582,10 +633,16 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>2</v>
@@ -608,10 +665,16 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>3.3456789</v>
@@ -634,10 +697,16 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>4</v>
@@ -660,10 +729,16 @@
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>4</v>
@@ -686,10 +761,16 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,25 +778,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>5.6789</v>
+        <v>5.60708009</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,25 +810,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>5.6789</v>
+        <v>5.60708009</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>6</v>
@@ -764,10 +857,16 @@
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>6</v>
@@ -790,10 +889,16 @@
         <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,25 +906,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>7.89</v>
+        <v>7.00080009</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,13 +938,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>8</v>
@@ -842,10 +953,16 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,13 +970,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>8</v>
@@ -868,10 +985,16 @@
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,13 +1002,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>9</v>
@@ -894,10 +1017,16 @@
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,25 +1034,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,25 +1066,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,10 +1098,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -969,13 +1110,19 @@
         <v>11</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,25 +1130,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1146,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,15 +1194,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
